--- a/diplom/март/yn/models_results_optimized.xlsx
+++ b/diplom/март/yn/models_results_optimized.xlsx
@@ -531,7 +531,7 @@
         <v>29</v>
       </c>
       <c r="B12" t="n">
-        <v>23.58859510397582</v>
+        <v>23.58859510397583</v>
       </c>
     </row>
     <row r="13">
@@ -571,7 +571,7 @@
         <v>23</v>
       </c>
       <c r="B17" t="n">
-        <v>21.93657117270812</v>
+        <v>21.93657117270813</v>
       </c>
     </row>
     <row r="18">

--- a/diplom/март/yn/models_results_optimized.xlsx
+++ b/diplom/март/yn/models_results_optimized.xlsx
@@ -451,7 +451,7 @@
         <v>19</v>
       </c>
       <c r="B2" t="n">
-        <v>21.35129022099381</v>
+        <v>18.56176321125604</v>
       </c>
     </row>
     <row r="3">
@@ -459,7 +459,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>24.22691511861917</v>
+        <v>24.97543943015222</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="n">
-        <v>24.97874288003601</v>
+        <v>25.45168361663414</v>
       </c>
     </row>
     <row r="5">
@@ -475,7 +475,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="n">
-        <v>25.60476081401964</v>
+        <v>25.7355532897516</v>
       </c>
     </row>
     <row r="6">
@@ -483,7 +483,7 @@
         <v>22</v>
       </c>
       <c r="B6" t="n">
-        <v>23.65038360347021</v>
+        <v>22.90895768057941</v>
       </c>
     </row>
     <row r="7">
@@ -491,7 +491,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="n">
-        <v>21.80034425434959</v>
+        <v>22.37395465342242</v>
       </c>
     </row>
     <row r="8">
@@ -499,7 +499,7 @@
         <v>28</v>
       </c>
       <c r="B8" t="n">
-        <v>21.93183695569276</v>
+        <v>21.08064265516006</v>
       </c>
     </row>
     <row r="9">
@@ -507,7 +507,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="n">
-        <v>23.06787471992824</v>
+        <v>23.88950872398927</v>
       </c>
     </row>
     <row r="10">
@@ -515,7 +515,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>24.22330250756968</v>
+        <v>24.98786293164285</v>
       </c>
     </row>
     <row r="11">
@@ -523,7 +523,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="n">
-        <v>25.06608814916017</v>
+        <v>25.15719726101419</v>
       </c>
     </row>
     <row r="12">
@@ -531,7 +531,7 @@
         <v>29</v>
       </c>
       <c r="B12" t="n">
-        <v>23.58859510397583</v>
+        <v>24.45345059775665</v>
       </c>
     </row>
     <row r="13">
@@ -539,7 +539,7 @@
         <v>27</v>
       </c>
       <c r="B13" t="n">
-        <v>26.23513781746881</v>
+        <v>26.51020785404365</v>
       </c>
     </row>
     <row r="14">
@@ -547,7 +547,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>21.98985574629438</v>
+        <v>22.49244353526722</v>
       </c>
     </row>
     <row r="15">
@@ -555,7 +555,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="n">
-        <v>25.46641563329771</v>
+        <v>27.32369452590562</v>
       </c>
     </row>
     <row r="16">
@@ -563,7 +563,7 @@
         <v>29</v>
       </c>
       <c r="B16" t="n">
-        <v>26.36052960759892</v>
+        <v>26.92779751435327</v>
       </c>
     </row>
     <row r="17">
@@ -571,7 +571,7 @@
         <v>23</v>
       </c>
       <c r="B17" t="n">
-        <v>21.93657117270813</v>
+        <v>19.7452147589598</v>
       </c>
     </row>
     <row r="18">
@@ -579,7 +579,7 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>24.66679205371434</v>
+        <v>24.95392004904976</v>
       </c>
     </row>
     <row r="19">
@@ -587,7 +587,7 @@
         <v>30</v>
       </c>
       <c r="B19" t="n">
-        <v>25.26929530508573</v>
+        <v>25.70861663681179</v>
       </c>
     </row>
   </sheetData>
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9.366761243755468</v>
+        <v>8.92352899475663</v>
       </c>
     </row>
     <row r="3">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.340833988733538</v>
+        <v>3.236759871108188</v>
       </c>
     </row>
   </sheetData>

--- a/diplom/март/yn/models_results_optimized.xlsx
+++ b/diplom/март/yn/models_results_optimized.xlsx
@@ -451,7 +451,7 @@
         <v>19</v>
       </c>
       <c r="B2" t="n">
-        <v>18.56176321125604</v>
+        <v>18.94572123197193</v>
       </c>
     </row>
     <row r="3">
@@ -459,7 +459,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>24.97543943015222</v>
+        <v>25.94658060496382</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="n">
-        <v>25.45168361663414</v>
+        <v>26.14359011292584</v>
       </c>
     </row>
     <row r="5">
@@ -475,7 +475,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="n">
-        <v>25.7355532897516</v>
+        <v>25.96136532157957</v>
       </c>
     </row>
     <row r="6">
@@ -483,7 +483,7 @@
         <v>22</v>
       </c>
       <c r="B6" t="n">
-        <v>22.90895768057941</v>
+        <v>23.62604132199929</v>
       </c>
     </row>
     <row r="7">
@@ -491,7 +491,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="n">
-        <v>22.37395465342242</v>
+        <v>22.81276171129316</v>
       </c>
     </row>
     <row r="8">
@@ -499,7 +499,7 @@
         <v>28</v>
       </c>
       <c r="B8" t="n">
-        <v>21.08064265516006</v>
+        <v>24.23680543049084</v>
       </c>
     </row>
     <row r="9">
@@ -507,7 +507,7 @@
         <v>24</v>
       </c>
       <c r="B9" t="n">
-        <v>23.88950872398927</v>
+        <v>26.13224319817837</v>
       </c>
     </row>
     <row r="10">
@@ -515,7 +515,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>24.98786293164285</v>
+        <v>26.13013083871281</v>
       </c>
     </row>
     <row r="11">
@@ -523,7 +523,7 @@
         <v>25</v>
       </c>
       <c r="B11" t="n">
-        <v>25.15719726101419</v>
+        <v>26.14732274786395</v>
       </c>
     </row>
     <row r="12">
@@ -531,7 +531,7 @@
         <v>29</v>
       </c>
       <c r="B12" t="n">
-        <v>24.45345059775665</v>
+        <v>25.13593598197471</v>
       </c>
     </row>
     <row r="13">
@@ -539,7 +539,7 @@
         <v>27</v>
       </c>
       <c r="B13" t="n">
-        <v>26.51020785404365</v>
+        <v>27.13864286293289</v>
       </c>
     </row>
     <row r="14">
@@ -547,7 +547,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="n">
-        <v>22.49244353526722</v>
+        <v>24.9921162720967</v>
       </c>
     </row>
     <row r="15">
@@ -555,7 +555,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="n">
-        <v>27.32369452590562</v>
+        <v>28.08287243032237</v>
       </c>
     </row>
     <row r="16">
@@ -563,7 +563,7 @@
         <v>29</v>
       </c>
       <c r="B16" t="n">
-        <v>26.92779751435327</v>
+        <v>27.32557398945399</v>
       </c>
     </row>
     <row r="17">
@@ -571,7 +571,7 @@
         <v>23</v>
       </c>
       <c r="B17" t="n">
-        <v>19.7452147589598</v>
+        <v>21.01204098641356</v>
       </c>
     </row>
     <row r="18">
@@ -579,7 +579,7 @@
         <v>27</v>
       </c>
       <c r="B18" t="n">
-        <v>24.95392004904976</v>
+        <v>26.0523740111381</v>
       </c>
     </row>
     <row r="19">
@@ -587,7 +587,7 @@
         <v>30</v>
       </c>
       <c r="B19" t="n">
-        <v>25.70861663681179</v>
+        <v>26.96206579087692</v>
       </c>
     </row>
   </sheetData>
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.92352899475663</v>
+        <v>7.990598917099294</v>
       </c>
     </row>
     <row r="3">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.236759871108188</v>
+        <v>2.644362911510692</v>
       </c>
     </row>
   </sheetData>
